--- a/medicine/Pharmacie/1780_en_santé_et_médecine/1780_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1780_en_santé_et_médecine/1780_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1780_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1780_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1780 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1780_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1780_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Autriche
-L'empereur autrichien Joseph II visite La Specola et commande un grand nombre de modèles de cires anatomiques pour son Collegium Medico-Chirurgicum Josephinum (de) de Vienne. Ils sont réalisés par Felice Fontana avec l'aide de Clemente Susini et supervisés par l'anatomiste Paolo Mascagni[1].
+L'empereur autrichien Joseph II visite La Specola et commande un grand nombre de modèles de cires anatomiques pour son Collegium Medico-Chirurgicum Josephinum (de) de Vienne. Ils sont réalisés par Felice Fontana avec l'aide de Clemente Susini et supervisés par l'anatomiste Paolo Mascagni.
 France
-1er janvier : Louis XVI promulgue le Code d'administration des hôpitaux militaires[2].
-25 septembre : à Paris, fondation de l'hôpital de la paroisse Saint-Jacques-du-Haut-Pas qui deviendra en 1802 l'hôpital Cochin en mémoire de Jean-Denis Cochin, curé de la paroisse Saint-Jacques-du-Haut-Pas, fondateur d'un hôpital destiné aux indigents et aux ouvriers du quartier[3].
+1er janvier : Louis XVI promulgue le Code d'administration des hôpitaux militaires.
+25 septembre : à Paris, fondation de l'hôpital de la paroisse Saint-Jacques-du-Haut-Pas qui deviendra en 1802 l'hôpital Cochin en mémoire de Jean-Denis Cochin, curé de la paroisse Saint-Jacques-du-Haut-Pas, fondateur d'un hôpital destiné aux indigents et aux ouvriers du quartier.
 16 novembre : mort du poète lorrain Nicolas Gilbert à la suite d'une trépanation. Il était tombé de cheval le 24 octobre et avait été conduit à l'hôtel-Dieu de Paris où il fut opéré. Une anecdote rapporte qu'il serait mort en avalant une clé dans une crise de délire.
-Automne : « fièvres putrides et malignes[4] » ; le phénomène se reproduira en 1781.</t>
+Automne : « fièvres putrides et malignes » ; le phénomène se reproduira en 1781.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1780_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1780_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Bulliard, Herbier de la France, ou Collection complète des plantes indigènes de ce royaume ; avec leurs détails anatomiques, leurs propriétés, et leurs usages en médecine — En ligne : vol. 4 et 5
 Pierre Thouvenel, Mémoire chimique et médicinal sur la nature, les usages et les effets de l’air et des airs, des aliments et des médicaments relativement à l’économie animale ; ouvrage qui a remporté le prix double proposé par l’Académie de Toulouse pour l’année 1778, Paris, Didot le jeune, 1780, in-4°, 60 p.
-Clément Joseph Tissot (1747–1826) publie un livre intitulé Gymnastique médicinale et chirurgicale qu'il dédie « à son maître et ami Me Le Preux[5]. » Ce livre fera sa réputation et sera rapidement traduit en plusieurs langues, notamment en allemand[6] et en italien[7],[8].</t>
+Clément Joseph Tissot (1747–1826) publie un livre intitulé Gymnastique médicinale et chirurgicale qu'il dédie « à son maître et ami Me Le Preux. » Ce livre fera sa réputation et sera rapidement traduit en plusieurs langues, notamment en allemand et en italien,.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1780_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1780_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 janvier : Martin Lichtenstein (mort en 1857), médecin, explorateur et zoologiste allemand.
 14 janvier : Pierre Jean Robiquet (mort en 1840), pharmacien et chimiste français.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1780_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1780_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>22 janvier : André Levret (né en 1703), obstétricien français.
 24 janvier : Jean-Baptiste-Michel Bucquet (né en 1746), médecin et chimiste français.
